--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_sim/tests/multialgorithm/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_dev_repos/wc_sim/tests/multialgorithm/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="11840" tabRatio="989" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="11840" tabRatio="989" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -30,18 +30,18 @@
     <sheet name="Database references" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Compartments!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Compartments!$A$1:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12">Parameters!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14">References!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">'Species types'!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$F$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="12">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="8">Reactions!$A$1:$D$5</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="14">References!$A$1:$E$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$J$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$F$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="12">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="8">Reactions!$A$1:$D$5</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="14">References!$A$1:$E$1</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="148">
   <si>
     <t>Id</t>
   </si>
@@ -1438,7 +1438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1751,18 +1751,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="8.83203125" style="2"/>
+    <col min="1" max="7" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1776,13 +1776,16 @@
         <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -1795,11 +1798,12 @@
       <c r="D2" s="5">
         <v>4.58E-17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1812,12 +1816,13 @@
       <c r="D3" s="5">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:F3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
